--- a/biology/Botanique/Chrysanthemum_zawadskii_subsp._latilobum/Chrysanthemum_zawadskii_subsp._latilobum.xlsx
+++ b/biology/Botanique/Chrysanthemum_zawadskii_subsp._latilobum/Chrysanthemum_zawadskii_subsp._latilobum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysanthemum zawadskii subsp. latilobum est une sous-espèce de chrysanthème d'automne, de la famille des Asteraceae. Sa croissance est rapide et il peut atteindre 70 cm de hauteur. Cette plante très rustique peut supporter des températures allant jusqu'à −5 °C à −10 °C. Elle fleurit de la fin du mois d'août à la fin automne.
 Cette plante est très florifère et odorante, c'est particulièrement le cas du cultivar Clara Curtis dont les fleurs sont blanches en pompons. Selon les cultivars, ce chrysanthème d'automne fait des fleurs roses, vieux rose, jaunes, couleur abricot, blanches ou rouges.
@@ -514,7 +526,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chrysanthemum ×rubellum Sealy
 Chrysanthemum zawadskii var. latilobum (Maxim.) Kitam.
@@ -547,7 +561,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Référence GRIN : espèce Chrysanthemum zawadskii Herbich subsp. latilobum (Maxim.) Kitag.
  Portail de la botanique                     </t>
